--- a/AAII_Financials/Quarterly/WPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>WPCB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,36 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,8 +710,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,8 +742,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +774,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,8 +822,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,20 +961,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,8 +991,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,11 +1003,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1039,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1015,11 +1049,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,20 +1133,23 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3500</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1122,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,8 +1197,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,20 +1229,23 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,20 +1261,23 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3500</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1238,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1421,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1363,11 +1433,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,20 +1453,23 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3500</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,20 +1517,23 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3500</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,25 +1549,28 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,19 +1616,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="3">
+        <v>1200</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1559,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,8 +1678,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1617,8 +1710,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,20 +1742,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,20 +1774,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,8 +1806,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1715,8 +1820,8 @@
       <c r="E47" s="3">
         <v>548800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>548800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1733,8 +1838,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1762,8 +1870,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,8 +1966,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1878,8 +1998,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,20 +2030,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>550800</v>
+      </c>
+      <c r="E54" s="3">
         <v>551100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>551300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,8 +2092,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1973,8 +2104,8 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1991,8 +2122,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2020,20 +2154,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,20 +2186,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,8 +2218,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2107,20 +2250,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E62" s="3">
         <v>45600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>39300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,20 +2378,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E66" s="3">
         <v>46500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,20 +2552,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,20 +2680,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>511800</v>
+      </c>
+      <c r="E76" s="3">
         <v>504600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>511700</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,25 +2744,28 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,20 +2781,23 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3500</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,8 +3019,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2814,11 +3031,11 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2876,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,8 +3161,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2943,11 +3173,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-548800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3193,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,8 +3335,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3101,11 +3347,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>551500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,8 +3399,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3159,11 +3411,11 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>WPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,8 +713,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,8 +748,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,8 +783,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +903,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +938,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +973,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,23 +987,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1020,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,14 +1032,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1055,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,8 +1072,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,14 +1082,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1105,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1104,8 +1140,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,23 +1175,26 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3500</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,8 +1210,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,8 +1245,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,23 +1280,26 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>7200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,23 +1315,26 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>7200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1350,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1490,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1433,14 +1502,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F32" s="3">
         <v>6300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,23 +1525,26 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>7200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1560,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,23 +1595,26 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>7200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,28 +1630,31 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1670,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,22 +1702,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1200</v>
       </c>
       <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>1200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1649,8 +1735,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,8 +1770,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1713,8 +1805,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,23 +1840,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,23 +1875,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1910,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1823,8 +1927,8 @@
       <c r="F47" s="3">
         <v>548800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>548800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1841,8 +1945,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1873,8 +1980,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +2015,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,8 +2085,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2001,8 +2120,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,23 +2155,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>550300</v>
+      </c>
+      <c r="E54" s="3">
         <v>550800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>551100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>551300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2190,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,13 +2222,14 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2107,8 +2237,8 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2255,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2157,23 +2290,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,23 +2325,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2360,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,23 +2395,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E62" s="3">
         <v>38100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>39300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,8 +2430,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,23 +2535,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E66" s="3">
         <v>39100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2570,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,23 +2725,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2760,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,23 +2865,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>508900</v>
+      </c>
+      <c r="E76" s="3">
         <v>511800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>504600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>511700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2715,8 +2900,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,28 +2935,31 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,23 +2975,26 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>7200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +3010,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3027,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2862,8 +3060,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,23 +3235,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3270,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3287,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3100,8 +3320,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,8 +3390,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3176,11 +3405,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-548800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3425,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3442,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,23 +3580,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>551500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3370,8 +3615,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,23 +3650,26 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,6 +3683,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>WPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,8 +717,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,8 +755,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,8 +793,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,8 +831,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +849,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +885,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +923,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,8 +961,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,8 +999,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,26 +1014,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1050,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1032,17 +1062,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1088,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,8 +1106,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,17 +1116,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>7500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,8 +1142,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1143,8 +1180,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,26 +1218,29 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3500</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,8 +1256,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1248,8 +1294,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,26 +1332,29 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,26 +1370,29 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1408,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1446,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1484,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1522,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,8 +1560,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1502,17 +1572,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,26 +1598,29 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1636,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,26 +1674,29 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,31 +1712,34 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1755,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1773,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,25 +1789,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1200</v>
       </c>
       <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>1200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1738,8 +1825,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,8 +1863,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1808,8 +1901,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,26 +1939,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,26 +1977,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,8 +2015,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1930,8 +2035,8 @@
       <c r="G47" s="3">
         <v>548800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>548800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1948,8 +2053,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1983,8 +2091,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2018,8 +2129,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2167,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,8 +2205,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2123,8 +2243,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,26 +2281,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>549800</v>
+      </c>
+      <c r="E54" s="3">
         <v>550300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>550800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>551100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>551300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2319,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2337,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,25 +2353,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2258,8 +2389,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2293,26 +2427,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,26 +2465,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2503,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2398,26 +2541,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E62" s="3">
         <v>39500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>39300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2579,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2617,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2655,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,26 +2693,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>41400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2731,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2749,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2785,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2823,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2861,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,26 +2899,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-37000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2937,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2975,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3013,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,26 +3051,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>508900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>511800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>504600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>511700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3089,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,31 +3127,34 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,26 +3170,29 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3208,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,8 +3226,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3063,8 +3262,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3300,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3338,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3376,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3414,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,26 +3452,29 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3490,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,8 +3508,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3323,8 +3544,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3582,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,8 +3620,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3408,11 +3638,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-548800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3428,8 +3658,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3676,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,8 +3712,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3750,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3788,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,26 +3826,29 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>551500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3618,8 +3864,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,8 +3902,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3662,17 +3914,17 @@
         <v>-400</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3686,6 +3938,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>WPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,8 +721,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,8 +762,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,8 +803,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +863,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,8 +943,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,8 +984,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1025,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,29 +1041,30 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,8 +1080,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1062,20 +1092,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1121,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1140,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1116,20 +1150,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1179,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1183,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1221,29 +1261,32 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>3800</v>
       </c>
       <c r="E23" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3500</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1302,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1297,8 +1343,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,29 +1384,32 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>3800</v>
       </c>
       <c r="E26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,29 +1425,32 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>3800</v>
       </c>
       <c r="E27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1466,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,8 +1630,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1572,20 +1642,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1601,29 +1671,32 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>3800</v>
       </c>
       <c r="E33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1712,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,29 +1753,32 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>3800</v>
       </c>
       <c r="E35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,34 +1794,37 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1840,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,28 +1876,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1200</v>
       </c>
       <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>1200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1828,8 +1915,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,8 +1956,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1904,8 +1997,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,29 +2038,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,29 +2079,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,13 +2120,16 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>548800</v>
+        <v>549600</v>
       </c>
       <c r="E47" s="3">
         <v>548800</v>
@@ -2038,8 +2143,8 @@
       <c r="H47" s="3">
         <v>548800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>548800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2056,8 +2161,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2094,8 +2202,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2132,8 +2243,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,8 +2325,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2246,8 +2366,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,29 +2407,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>550300</v>
+      </c>
+      <c r="E54" s="3">
         <v>549800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>550300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>550800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>551100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>551300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2448,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,28 +2484,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2392,8 +2523,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2430,29 +2564,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,29 +2605,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,8 +2646,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,29 +2687,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E62" s="3">
         <v>28300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>39500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>38100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>39300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2728,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,29 +2851,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>27400</v>
       </c>
       <c r="E66" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F66" s="3">
         <v>41400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2892,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2864,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,29 +3073,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-39900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-37000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3114,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,29 +3237,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>522900</v>
       </c>
       <c r="E76" s="3">
+        <v>519100</v>
+      </c>
+      <c r="F76" s="3">
         <v>508900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>511800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>504600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>511700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3278,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,34 +3319,37 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,29 +3365,32 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>3800</v>
       </c>
       <c r="E81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3406,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,8 +3425,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3265,8 +3464,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,29 +3669,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3493,8 +3710,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,8 +3729,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3547,8 +3768,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,8 +3850,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3641,11 +3871,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-548800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3891,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,8 +4072,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3838,20 +4084,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>551500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +4113,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3905,29 +4154,32 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>-400</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,6 +4193,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
